--- a/output/japanese/final.xlsx
+++ b/output/japanese/final.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,2376 +453,4790 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A whole number between 0 and 200 is recommended for setting the low stock threshold for stock countdown.</t>
+          <t>"View all" button link</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>在庫カウントダウンの在庫不足のしきい値を設定するには、0から200までの整数をお勧めします。</t>
+          <t>「すべて表示」ボタンリンク</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Adapt to button setting</t>
+          <t>&lt;b&gt;your content&lt;/b&gt; for bold text.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ボタン設定に合わせる</t>
+          <t>太字には&lt;b&gt;あなたのコンテンツ&lt;/b&gt;。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adapt to edge setting</t>
+          <t>&lt;br /&gt; to break line.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>エッジ設定に合わせる</t>
+          <t>改行には&lt;br /&gt;。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Additional information</t>
+          <t>Accept button (dark)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>追加情報</t>
+          <t>同意ボタン（暗い）</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Allow manual switch</t>
+          <t>Accept button (light)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>手動切り替えを許可する</t>
+          <t>同意ボタン（明るい）</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Background</t>
+          <t>Accept button color (dark)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>背景</t>
+          <t>承認ボタンの色（ダーク）</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Background color(Dark)</t>
+          <t>Accept button color (light)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>背景色（ダーク）</t>
+          <t>承認ボタンの色（ライト）</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Background color(Light)</t>
+          <t>Accept button hover (dark)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>背景色（ライト）</t>
+          <t>承認ボタンのホバー（ダーク）</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Base size</t>
+          <t>Accept button hover (light)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>基準サイズ</t>
+          <t>承認ボタンのホバー（ライト）</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Basics</t>
+          <t>Accept button label</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>基本設定</t>
+          <t>同意ボタンのラベル</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Below product price</t>
+          <t>Accept button text (dark)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>商品価格の下</t>
+          <t>同意ボタンのテキスト（暗い）</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Below product title</t>
+          <t>Accept button text (light)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>商品タイトルの下</t>
+          <t>同意ボタンのテキスト（明るい）</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Blog &amp; Page</t>
+          <t>Accept button text color (dark)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ブログとページ</t>
+          <t>承認ボタンのテキスト色（ダーク）</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Body</t>
+          <t>Accept button text color (light)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>本文</t>
+          <t>承認ボタンのテキスト色（ライト）</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Accept button text hover (dark)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>両方</t>
+          <t>承認ボタンのテキストのホバー（ダーク）</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brand Trust</t>
+          <t>Accept button text hover (light)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ブランドへの信頼</t>
+          <t>承認ボタンのテキストのホバー（ライト）</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Account</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ボタン</t>
+          <t>アカウント</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Button colors</t>
+          <t>Adapt to content</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ボタンの色</t>
+          <t>コンテンツに合わせる</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Button font</t>
+          <t>Add SearchAction schema to home page</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ボタンフォント</t>
+          <t>ホームページにSearchActionスキーマを追加する</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Button label on product card</t>
+          <t>Add a cookie banner to your store in Theme settings &gt; Cookie banner</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>商品カードのボタンラベル</t>
+          <t>ストアにクッキーバナーを追加するには、テーマ設定 &gt; クッキーバナーに進みます</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Buttons</t>
+          <t>Add left and right padding when section is full-width.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ボタン</t>
+          <t>セクションが全幅の場合に左右のパディングを追加します。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Capitalize</t>
+          <t>Add schema to breadcrumbs</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>先頭を大文字にする</t>
+          <t>パンくずリストにスキーマを追加する</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cart dot</t>
+          <t>Address Detail</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>カートの点</t>
+          <t>住所の詳細</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cart dot text</t>
+          <t>Address and hour</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>カートの点テキスト</t>
+          <t>住所と営業時間</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Collections</t>
+          <t>Addresses</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>コレクション</t>
+          <t>住所</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Advanced</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>色</t>
+          <t>詳細設定</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Color option name</t>
+          <t>Age Verification popup</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>色オプション名</t>
+          <t>年齢確認ポップアップ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Color swatch values</t>
+          <t>Angle</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>カラースウォッチ値</t>
+          <t>角度</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colors</t>
+          <t>Animations</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>色</t>
+          <t>アニメーション</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colors (Dark Theme)</t>
+          <t>Answer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>色（ダークテーマ）</t>
+          <t>回答</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Compact</t>
+          <t>Applies to 'Sliced with icon' animation type.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>コンパクト</t>
+          <t>「アイコン付きスライス」アニメーションタイプに適用されます。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Control the slide transition duration when the image carousel effect and navigation arrows are enabled</t>
+          <t>Apply to collections</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>画像カルーセル効果とナビゲーション矢印が有効になっている場合のスライド遷移時間を制御します</t>
+          <t>コレクションに適用</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cross-Selling</t>
+          <t>Apply to products</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>クロスセル</t>
+          <t>商品に適用</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Custom price format</t>
+          <t>Arrows position</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>カスタム価格形式</t>
+          <t>矢印の位置</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Customize the format in which prices are displayed using the following placeholders:</t>
+          <t>Ask your customers for consent to use cookies and process their data, as required by the European Union's ePrivacy Directive and General Data Protection Regulation. [Learn more](https://help.shopify.com/manual/your-account/privacy/GDPR)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>以下のプレースホルダーを使用して、価格の表示形式をカスタマイズします。</t>
+          <t>欧州連合のeプライバシー指令および一般データ保護規則に従い、顧客にクッキーの使用とデータ処理の同意を求めます。[詳細はこちら](https://help.shopify.com/manual/your-account/privacy/GDPR)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Auto-fill product images with metafield</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ダーク</t>
+          <t>メタフィールドで商品画像を自動入力</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Default engraving label</t>
+          <t>Border color (dark)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>デフォルトの刻印ラベル</t>
+          <t>枠線色（ダーク）</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Default gift wrapping label</t>
+          <t>Border color (light)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>デフォルトのギフトラッピングラベル</t>
+          <t>枠線色（ライト）</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Default mode</t>
+          <t>Bottom padding</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>デフォルトモード</t>
+          <t>下部パディング</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Desktop padding</t>
+          <t>Button color hover (dark)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>デスクトップのパディング</t>
+          <t>ボタンのホバー色（ダーク）</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Desktop side padding</t>
+          <t>Button color hover (light)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>デスクトップのサイドパディング</t>
+          <t>ボタンのホバー色（ライト）</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Display text next to swatches</t>
+          <t>Button text color hover (dark)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>スウォッチの横にテキストを表示する</t>
+          <t>ボタンテキストのホバー色（ダーク）</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Enable on product cards</t>
+          <t>Button text color hover (light)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>商品カードで有効にする</t>
+          <t>ボタンテキストのホバー色（ライト）</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Enable price range</t>
+          <t>Cart and checkout prices always show currency codes. Example: $1.00 USD.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>価格帯を有効にする</t>
+          <t>カートとチェックアウトの価格には常に通貨コードが表示されます。例：$1.00 USD。</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Enable theme mode</t>
+          <t>Choose an FAQ page.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>テーマモードを有効にする</t>
+          <t>FAQページを選択してください。</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Engrave this product</t>
+          <t>Classic</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>この商品を刻印する</t>
+          <t>クラシック</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Engraving option</t>
+          <t>Collapse</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>刻印オプション</t>
+          <t>折りたたむ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Engraving product</t>
+          <t>Collapsible</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>刻印商品</t>
+          <t>折りたたみ可能</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Combined Listings (Plus only)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>エラー</t>
+          <t>統合リスト（Plusプランのみ）</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Content background color</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>コンテンツの背景色</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fill in all the name(s) of the color option used in the store, phrases of different languages are separated by a comma. (E.g. Color, Colour, Couleur).</t>
+          <t>Cookie banner</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ストアで使用されている色オプションの名前をすべて入力してください。異なる言語のフレーズはコンマで区切られます（例：Color, Colour, Couleur）。</t>
+          <t>クッキーバナー</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fill in the name(s) of the option used as text swatch, phrases of different languages are separated by a comma (E.g. Size, Taille).</t>
+          <t>Cookie notice</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>テキストスウォッチとして使用されるオプションの名前を記入してください。異なる言語のフレーズはコンマで区切られます（例：Size, Taille）。</t>
+          <t>クッキー通知</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fill up</t>
+          <t>Cookie style</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>塗りつぶし</t>
+          <t>クッキースタイル</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Filter</t>
+          <t>Copy to clipboard</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>フィルター</t>
+          <t>クリップボードにコピー</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Font</t>
+          <t>Currency codes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>フォント</t>
+          <t>通貨コード</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Font highlight</t>
+          <t>Currency format</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>フォントハイライト</t>
+          <t>通貨形式</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Font size scale</t>
+          <t>Custom code</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>フォントサイズスケール</t>
+          <t>カスタムコード</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Forms</t>
+          <t>Custom icon (SVG code)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>フォーム</t>
+          <t>カスタムアイコン (SVGコード)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Decline button label</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>一般</t>
+          <t>拒否ボタンのラベル</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gift wrap this product</t>
+          <t>Decline button redirect link</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>この商品をギフトラッピングする</t>
+          <t>拒否ボタンのリダイレクトリンク</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Gift wrapping</t>
+          <t>Default style on desktop</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ギフトラッピング</t>
+          <t>デスクトップのデフォルトスタイル</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Gift wrapping product</t>
+          <t>Default style on mobile</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ギフトラッピング商品</t>
+          <t>モバイルのデフォルトスタイル</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Heading and title</t>
+          <t>Delay</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>見出しとタイトル</t>
+          <t>遅延</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Heading highlight</t>
+          <t>Delay is disabled in theme editor for editing purposes.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>見出しのハイライト</t>
+          <t>編集目的のため、テーマエディターでは遅延は無効になっています。</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Heading highlight size is calculated based on the percentage of the Heading base size above.</t>
+          <t>Desktop font size scale</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>見出しのハイライトサイズは、上記の見出し基準サイズの割合に基づいて計算されます。</t>
+          <t>デスクトップのフォントサイズスケール</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Headings</t>
+          <t>Desktop label size</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>見出し</t>
+          <t>デスクトップのラベルサイズ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hide product from catalogue</t>
+          <t>Desktop layout</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>カタログから商品を隠す</t>
+          <t>デスクトップレイアウト</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Highlight font</t>
+          <t>Desktop vertical position</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ハイライトフォント</t>
+          <t>デスクトップの垂直位置</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Highlight size</t>
+          <t>Direction</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ハイライトサイズ</t>
+          <t>方向</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Highlighted attributes</t>
+          <t>Disable heading and subheading animation</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ハイライト表示された属性</t>
+          <t>見出しと小見出しのアニメーションを無効にする</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Highlighted features</t>
+          <t>Disable image zoom-in animation</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ハイライト機能</t>
+          <t>画像ズームインアニメーションを無効にする</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Icon 1</t>
+          <t>Disable parallax effect</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>アイコン 1</t>
+          <t>パララックス効果を無効にする</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Icon 2</t>
+          <t>Display</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>アイコン 2</t>
+          <t>表示</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Icon 3</t>
+          <t>Display rules</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>アイコン 3</t>
+          <t>表示ルール</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Icon 4</t>
+          <t>Does not apply for overlay content.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>アイコン 4</t>
+          <t>オーバーレイコンテンツには適用されません。</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Icon metafield</t>
+          <t>Dynamically change the browser tab title to draw customers' attention back to your store when they are on another tab</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>アイコンのメタフィールド</t>
+          <t>顧客が別のタブにいるときに、ブラウザのタブタイトルを動的に変更して、ストアに注意を向けさせます</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Image carousel</t>
+          <t>Enable Product Combined listings</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>画像カルーセル</t>
+          <t>商品統合リストを有効にする</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Image effect</t>
+          <t>Enable content overlay</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>画像効果</t>
+          <t>コンテンツオーバーレイを有効にする</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Image treatment</t>
+          <t>Enable lazy loading for images</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>画像処理</t>
+          <t>画像の遅延読み込みを有効にする</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>In stock message</t>
+          <t xml:space="preserve">Enable microdata schema </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>在庫ありメッセージ</t>
+          <t>マイクロデータスキーマを有効にする</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>In stock message (dark)</t>
+          <t>Enable on desktop</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>在庫ありメッセージ（ダーク）</t>
+          <t>デスクトップで有効にする</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>In stock message (light)</t>
+          <t>Enable on mobile</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>在庫ありメッセージ（ライト）</t>
+          <t>モバイルで有効にする</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Enable page transition</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>ページ遷移を有効にする</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Inventory status</t>
+          <t>Enable product labels and badges</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>在庫状況</t>
+          <t>商品ラベルとバッジを有効にする</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Label metafield</t>
+          <t>Enable reorder</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ラベルのメタフィールド</t>
+          <t>並べ替えを有効にする</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Letter spacing</t>
+          <t>Enable rotating effect</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>文字間隔</t>
+          <t>回転効果を有効にする</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Enable rounded corner images</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ライト</t>
+          <t>角丸画像を有効にする</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Line</t>
+          <t>Enable rounded corner style</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>線</t>
+          <t>角丸スタイルを有効にする</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Line and borders</t>
+          <t>Enable schedule</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>線と境界線</t>
+          <t>スケジュールを有効にする</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Linkedin</t>
+          <t>Enable side padding</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>サイドパディングを有効にする</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Low stock message</t>
+          <t>Enable tab attention</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>在庫僅少メッセージ</t>
+          <t>タブ注意を有効にする</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Low stock message (dark)</t>
+          <t>End day</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>在庫僅少メッセージ（ダーク）</t>
+          <t>終了日</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Low stock message (light)</t>
+          <t>End hour</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>在庫僅少メッセージ（ライト）</t>
+          <t>終了時間</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Low stock threshold</t>
+          <t>End minute</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>在庫不足のしきい値</t>
+          <t>終了分</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lowercase</t>
+          <t>End month</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>小文字</t>
+          <t>終了月</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Make a page to explain your price range. Use the placeholders from the 'Custom price format' note if you need them.</t>
+          <t>End year</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>価格帯を説明するページを作成します。「カスタム価格形式」の注記にあるプレースホルダーが必要な場合は使用してください。</t>
+          <t>終了年</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Marker</t>
+          <t>Event calendar</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>マーカー</t>
+          <t>イベントカレンダー</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Menu font</t>
+          <t>Exit</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>メニューフォント</t>
+          <t>終了</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Menu item level 1 animation</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>メニュー項目レベル1のアニメーション</t>
+          <t>よくある質問</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Mixed</t>
+          <t>Fill the address by order (all fields are optional): street address, address locality, address region, postal code, address country code. E.g: Rue Improbable 99,Paris,Ile-de-France,75001,FR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>住所を順番に入力してください（すべてのフィールドは任意です）：番地、市区町村、都道府県、郵便番号、国コード。例：Rue Improbable 99,Paris,Ile-de-France,75001,FR</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mobile padding</t>
+          <t>Fit grid layout</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>モバイルのパディング</t>
+          <t>グリッドレイアウトに合わせる</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mobile primary button style</t>
+          <t>Flag</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>モバイルのメインボタンのスタイル</t>
+          <t>フラグ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mobile side padding</t>
+          <t>For assistance with custom SVG code or fixing issues that arise from custom SVG code, please [contact our support](https://omnithemes.com/contact/).</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>モバイルのサイドパディング</t>
+          <t>カスタムSVGコードに関するサポートや、カスタムSVGコードに起因する問題の修正については、[弊社のサポートにご連絡ください](https://omnithemes.com/contact/)。</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Navigation (dark)</t>
+          <t>For better website accessibility, we recommend that only one popup should be shown on mobile devices.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ナビゲーション（ダーク）</t>
+          <t>ウェブサイトのアクセシビリティ向上のため、モバイルデバイスでは1つのポップアップのみを表示することを推奨します。</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Navigation (light)</t>
+          <t>For support with handling custom code or fixing issues related to custom code, please [contact us](https://omnithemes.com/contact/).</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ナビゲーション（ライト）</t>
+          <t>カスタムコードの処理やカスタムコードに関連する問題の修正については、[お問い合わせください](https://omnithemes.com/contact/)。</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Number of additional images</t>
+          <t>Frequently asked question</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>追加画像の数</t>
+          <t>よくある質問</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>One 'color name:value' per line. Up to three colors can be used to show vertical stripes. E.g.: 'Red Blue Stripes:#e22#22e'</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1行に1つの「色名:値」。最大3つの色を使用して縦縞を表示できます。例：「Red Blue Stripes:#e22#22e」</t>
+          <t>フル</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>One 'option name:value' per line.</t>
+          <t>Google Map will find the exact location</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1行に1つの「オプション名:値」。</t>
+          <t>Googleマップが正確な場所を検索します</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Only works with Marker and Bling bling menu highlight style</t>
+          <t>HTML for &lt;head&gt; tag</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>マーカーおよびブリンブリンのメニューハイライトスタイルでのみ機能します</t>
+          <t>&lt;head&gt;タグ用のHTML</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Out of stock message (dark)</t>
+          <t>Horizontal position</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>在庫切れメッセージ（ダーク）</t>
+          <t>水平位置</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Out of stock message (light)</t>
+          <t>Icon</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>在庫切れメッセージ（ライト）</t>
+          <t>アイコン</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Personalize the message that follows the default theme text when enabling Show quantity. For example, 30 in stock - [Your message].</t>
+          <t>Icon height</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>「数量表示」を有効にした際に、デフォルトのテーマテキストに続くメッセージをカスタマイズします。例：30点在庫あり - [あなたのメッセージ]。</t>
+          <t>アイコンの高さ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Personalize the message that follows the default theme text when enabling Show quantity. For example, 5 low in stock - [Your message].</t>
+          <t>Icon will show in front of label text.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>「数量表示」を有効にした際に、デフォルトのテーマテキストに続くメッセージをカスタマイズします。例：残り5点 - [あなたのメッセージ]。</t>
+          <t>アイコンはラベルテキストの前に表示されます。</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Pin on Pinterest</t>
+          <t>If you want to use different icons from the options above, look for an icon from our [icon list](https://support.omnithemes.com/blogs/user-guide/theme-icons) and fill the icon name here (E.g: price tag).</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Pinterestでピン留め</t>
+          <t>上記のオプションとは異なるアイコンを使用したい場合は、[アイコンリスト](https://support.omnithemes.com/blogs/user-guide/theme-icons)からアイコンを探し、ここにアイコン名を入力してください（例：price tag）。</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Pinterest</t>
+          <t>Image label</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pinterest</t>
+          <t>画像ラベル</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Pre-order</t>
+          <t>Image overlay slide</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>予約注文</t>
+          <t>画像オーバーレイスライド</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Pre-order message in shopping cart</t>
+          <t>Image zoom-in animation used in: Product card images, Collection card images, Media gallery, Promotion grid, Promotion popup, Text columns with image.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ショッピングカートでの予約注文メッセージ</t>
+          <t>画像ズームインアニメーションは、商品カード画像、コレクションカード画像、メディアギャラリー、プロモーショングリッド、プロモーションポップアップ、画像付きテキスト列で使用されます。</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Input the language codes to show languages in RTL layout. All codes must follow [ISO Language Code Table](https://www.w3schools.com/tags/ref_language_codes.asp) and separated using commas (Ex: ar,fa,ps)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>価格</t>
+          <t>RTLレイアウトで言語を表示するための言語コードを入力してください。すべてのコードは[ISO言語コード表](https://www.w3schools.com/tags/ref_language_codes.asp)に従い、コンマで区切る必要があります（例：ar,fa,ps）</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Price guide popup page link</t>
+          <t>Install the [Combined Listing](https://apps.shopify.com/combined-listings) app and enable this setting to use this feature. Available on Plus and enterprise commerce plans only.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>価格ガイドポップアップページリンク</t>
+          <t>[Combined Listing](https://apps.shopify.com/combined-listings)アプリをインストールし、この設定を有効にすることでこの機能を使用できます。Plusおよびエンタープライズコマースプランのみで利用可能です。</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Primary button</t>
+          <t>Keep block ratio on different screen width</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>メインボタン</t>
+          <t>異なる画面幅でブロック比率を維持する</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Primary button hover</t>
+          <t>Label opacity</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>メインボタンのホバー</t>
+          <t>ラベルの不透明度</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Primary button hover animation</t>
+          <t>Label position</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>メインボタンのホバーアニメーション</t>
+          <t>ラベルの位置</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Primary button hover text</t>
+          <t>Label type</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>メインボタンのホバーテキスト</t>
+          <t>ラベルタイプ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Primary button text</t>
+          <t>Layout</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>メインボタンのテキスト</t>
+          <t>レイアウト</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Product additional options</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/collection-page/collection-banner) this section.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>商品の追加オプション</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/collection-page/collection-banner)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Product cards</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/footer/footer) this section.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>商品カード</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/footer/footer)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Product price</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/footer/quicklinks) this section.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>商品価格</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/footer/quicklinks)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Product swatches</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/overlay-group-1/cookie-banner) this section.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>商品スウォッチ</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/overlay-group-1/cookie-banner)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Products</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/overlay-group-1/popup) this section.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/overlay-group-1/popup)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Promotions</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/overlay-group-1/quick-view) this section.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>プロモーション</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/overlay-group-1/quick-view)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Purchase &amp; Pricing</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/overlay-group-1/store-selector) this section.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>購入と価格設定</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/overlay-group-1/store-selector)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Rating icons</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/page-templates/blog-blog-detail-pages) this section.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>評価アイコン</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/page-templates/blog-blog-detail-pages)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Replace color options with variant images</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/page-templates/blog-page) this section.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>色のオプションをバリアント画像に置き換える</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/page-templates/blog-page)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Reveal second image</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/page-templates/cart-page) this section.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2番目の画像を表示</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/page-templates/cart-page)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Round</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/page-templates/collection-list-page) this section.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>丸型</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/page-templates/collection-list-page)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Rounded</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/page-templates/search-page) this section.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>丸みを帯びた</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/page-templates/search-page)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Rounded corners</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/engraving) this block.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>角が丸い</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/engraving)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sale price</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-add-a-collection-link) this block.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>セール価格</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-add-a-collection-link)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Secondary button</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-add-a-nutrition-fact-bar) this block.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>サブボタン</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-add-a-nutrition-fact-bar)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Secondary button text</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-add-a-table-of-information) this block.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>サブボタンのテキスト</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-add-a-table-of-information)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Secondary colors</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-add-size-chart) this block.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>サブカラー</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-add-size-chart)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Select 0 to show all available swatches on product cards.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-add-the-horizontal-tabs) this block.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>商品カードで利用可能なすべてのスウォッチを表示するには0を選択します。</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-add-the-horizontal-tabs)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Select mode</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-create-collapsible-tabs) this block.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>モードを選択</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-create-collapsible-tabs)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Selecting a different font can affect the speed of your store. [Learn more about system fonts.](https://help.shopify.com/manual/online-store/os/store-speed/improving-speed#fonts)</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-set-up-add-to-cart-and-buy-buttons) this block.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>異なるフォントを選択すると、ストアの速度に影響を与える可能性があります。[システムフォントについて詳しくはこちら。](https://help.shopify.com/manual/online-store/os/store-speed/improving-speed#fonts)</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-set-up-add-to-cart-and-buy-buttons)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Share on Facebook</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-a-back-in-stock-alert) this block.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Facebookで共有</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-a-back-in-stock-alert)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sharing options</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-a-sticky-add-to-cart-bar) this block.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>共有オプション</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-a-sticky-add-to-cart-bar)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Show icons on product cards for customers to quickly comprehend products' highlighted characteristics (e.g. ingredients, allergens). Learn more in our [user guide.](https://support.omnithemes.com/blogs/theme-settings/highlighted-icons-on-product-cards)</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-complementary-products) this block.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>商品カードにアイコンを表示して、顧客が商品の注目すべき特徴（例：成分、アレルゲン）を素早く理解できるようにします。詳細については、[ユーザーガイド](https://support.omnithemes.com/blogs/theme-settings/highlighted-icons-on-product-cards)をご覧ください。</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-complementary-products)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Show inventory status bar</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-estimated-shipping-date-of-the-product) this block.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>在庫状況バーを表示する</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-estimated-shipping-date-of-the-product)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Show quantity</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-frequently-bought-together-products) this block.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>数量を表示する</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-frequently-bought-together-products)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Show the minimum to maximum price range based on the differences in variants' price.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-highlighted-information-optional-icons) this block.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>バリアントの価格差に基づいて、最低価格から最高価格までの価格帯を表示します。</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-highlighted-information-optional-icons)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Showcase standout product qualities on cards to communicate value at a glance and support quicker, more confident purchase decisions. Learn more in our [user guide](https://support.omnithemes.com/blogs/theme-settings/custom-text-on-product-cards).</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-other-blocks) this block.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>カードに目立つ商品の特徴を表示することで、一目で価値を伝え、より迅速で自信のある購入決定をサポートします。詳細については、[ユーザーガイド](https://support.omnithemes.com/blogs/theme-settings/custom-text-on-product-cards)をご覧ください。</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-other-blocks)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sliced with icon</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-product-basic-information-title-price-description-etc) this block.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>アイコン付きスライス</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-product-basic-information-title-price-description-etc)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Slide</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-product-inventory-status) this block.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>スライド</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-product-inventory-status)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Social accounts</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-ratings) this block.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ソーシャルアカウント</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-ratings)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Social media</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-social-sharing-icons) this block.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ソーシャルメディア</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-social-sharing-icons)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Square</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-the-gift-wrapping-option) this block.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>角型</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-the-gift-wrapping-option)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Standard (3:4)</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-the-payment-method-for-each-product) this block.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>標準（3:4）</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-the-payment-method-for-each-product)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Storytelling</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/how-to-show-trust-badges) this block.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ストーリーテリング</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/how-to-show-trust-badges)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/product-description) this section.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/product-page/product-description)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Swatch size</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/product-information) this section.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>スウォッチサイズ</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/product-page/product-information)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Swatch style</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/product-recommendations) this section.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>スウォッチスタイル</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/product-page/product-recommendations)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Swatches shown by default</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/product-specifications) this section.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>デフォルトで表示されるスウォッチ</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/product-page/product-specifications)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Swatches types on product card</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/quick-order-list) this section.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>商品カードのスウォッチタイプ</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/product-page/quick-order-list)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Text link</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/product-page/volume-pricing-table) this block.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>テキストリンク</t>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/product-page/volume-pricing-table)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Text link (dark)</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/blog-post) this section.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>テキストリンク（ダーク）</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/blog-post)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Text link (light)</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/collage) this section.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>テキストリンク（ライト）</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/collage)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Text option name</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/collection-list) this section.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>テキストオプション名</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/collection-list)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Text option values</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/collection-list-banner) this section.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>テキストオプション値</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/collection-list-banner)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Text swatches</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/collection-list-carousel) this section.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>テキストスウォッチ</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/collection-list-carousel)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Text transform</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/comparison-table) this section.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>テキスト変換</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/comparison-table)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>The settings below automatically add color swatches to the filter in collection and search page.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/contact-form) this section.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>以下の設定により、コレクションページと検索ページのフィルターにカラースウォッチが自動的に追加されます。</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/contact-form)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Theme mode</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/custom-liquid) this section.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>テーマモード</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/custom-liquid)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/email-signup-newsletter) this section.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/email-signup-newsletter)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>To filter using additional color or image values, create metaobjects and metaobject references, then change the settings below as per your preferences. [Learn about showing visual filters using metaobjects.](https://help.shopify.com/manual/online-store/search-and-discovery/filters#visual-filters)</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/faqs) this section.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>追加の色や画像の値を使用してフィルタリングするには、メタオブジェクトとメタオブジェクト参照を作成し、以下の設定を好みに合わせて変更してください。[メタオブジェクトを使用したビジュアルフィルターの表示について詳しくはこちら。](https://help.shopify.com/manual/online-store/search-and-discovery/filters#visual-filters)</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/faqs)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>To trigger effect, hover image on desktop and double tap within image on mobile</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/featured-categories) this section.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>効果をトリガーするには、デスクトップでは画像にカーソルを合わせ、モバイルでは画像をダブルタップします</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/featured-categories)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>To use an image for color swatch, [upload a PNG image](/admin/settings/files) with the file name matching the color name, and spaces replaced by hyphens. E.g. for 'Hot Pink', upload 'hot-pink.png'.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/featured-collections) this section.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>カラースウォッチに画像を使用するには、色名に一致し、スペースをハイフンに置き換えたファイル名で[PNG画像をアップロード](/admin/settings/files)してください。例：「Hot Pink」の場合、「hot-pink.png」をアップロードします。</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/featured-collections)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Top of card</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/featured-product) this section.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>カードの上部</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/featured-product)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Trust &amp; Social Proof</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/flash-sale) this section.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>信頼と社会的証明</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/flash-sale)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Tweet on Twitter</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/flow) this section.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Twitterでツイート</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/flow)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Twitter (X)</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/highlight-text-with-image) this section.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Twitter (X)</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/highlight-text-with-image)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Typography</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/image-comparison) this section.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>タイポグラフィ</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/image-comparison)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Underline</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/logo-list) this section.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>下線</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/logo-list)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Uppercase</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/map-1) this section.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>大文字</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/map-1)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Use button color</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/media-gallery) this section.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ボタンの色を使用する</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/media-gallery)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Use button hover color</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/media-with-text) this section.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ボタンのホバー色を使用する</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/media-with-text)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Use device settings</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/multiple-stores) this section.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>デバイス設定を使用する</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/multiple-stores)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Utilities &amp; Layout</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/page) this section.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ユーティリティとレイアウト</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/page)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Visual value style</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/product-attribute-table) this section.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ビジュアル値のスタイル</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/product-attribute-table)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Wrap your text between [] to add heading highlights. E.g: Adding [marker] will underline [highlight] text.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/product-bundle) this section.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>見出しのハイライトを追加するには、テキストを[]で囲みます。例：[マーカー]を追加すると、[ハイライト]テキストに下線が引かれます。</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/product-bundle)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>http://instagram.com/shopify</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/product-comparison-table) this section.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>http://instagram.com/shopify</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/product-comparison-table)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://facebook.com/shopify</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/product-grid) this section.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://facebook.com/shopify</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/product-grid)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://pinterest.com/shopify</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/product-highlight) this section.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://pinterest.com/shopify</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/product-highlight)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://twitter.com/shopify</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/promo-code-list) this section.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://twitter.com/shopify</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/promo-code-list)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/shopify</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/promotion-banner) this section.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/shopify</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/promotion-banner)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>{max_price}: The highest price value.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/promotion-grid) this section.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>{max_price}：最高価格。</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/promotion-grid)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>{middle_price}: The mid-range price value.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/recently-viewed-products) this section.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>{middle_price}：中間価格。</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/recently-viewed-products)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>{min_price}: The lowest price value.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/related-blog-posts) this section.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>{min_price}：最低価格。</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/related-blog-posts)を学ぶ。</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>{price}: The product's current price.</t>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/related-collections) this section.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>{price}：商品の現在の価格。</t>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/related-collections)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/rich-text) this section.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/rich-text)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/scrolling-promotion) this section.</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/scrolling-promotion)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/shop-the-look) this section.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/shop-the-look)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/slideshow) this section.</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/slideshow)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/social-feeds) this section.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/social-feeds)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/tabs) this section.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/tabs)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/testimonial) this section.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/testimonial)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/testimonial-with-cards) this section.</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/testimonial-with-cards)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/text-columns-with-icons) this section.</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/text-columns-with-icons)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/text-columns-with-images) this section.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/text-columns-with-images)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/timeline) this section.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/timeline)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/user-guide-event-calendar) this section.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/user-guide-event-calendar)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/vertical-slideshow) this section.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/vertical-slideshow)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/video) this section.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/video)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/video-hero) this section.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/video-hero)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/video-looping) this section.</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/video-looping)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/sections-blocks/video-shopping) this section.</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/sections-blocks/video-shopping)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-add-a-cta-button-on-the-menu) this block.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-add-a-cta-button-on-the-menu)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-banner-menu-style) this block.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-banner-menu-style)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-blog-menu-style) this block.</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-blog-menu-style)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-contact-menu-style) this block.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-contact-menu-style)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-product-menu-style) this block.</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-product-menu-style)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-simple-menu-style) this block.</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-simple-menu-style)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-tabbed-menu-style) this block.</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-tabbed-menu-style)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-tree-menu-style) this block.</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/how-to-set-up-the-tree-menu-style)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/mobile-navigation) this section.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/mobile-navigation)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/user-guide-group-section-header-section-announcement-bar) this section.</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/user-guide-group-section-header-section-announcement-bar)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide-header-1/user-guide-header-section-header-block) this section.</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>このセクションの[使い方](https://support.omnithemes.com/blogs/user-guide-header-1/user-guide-header-section-header-block)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide/customizable-options) this block.</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide/customizable-options)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Learn [how to use](https://support.omnithemes.com/blogs/user-guide/product-siblings) this block.</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>このブロックの[使い方](https://support.omnithemes.com/blogs/user-guide/product-siblings)を学ぶ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Left spacing</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>左の間隔</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Left to right</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>左から右</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Line 1</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1行目</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Line 1 font size</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1行目のフォントサイズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Line 2</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2行目</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Line 2 font size</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2行目のフォントサイズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Line 3</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>3行目</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Line 3 font size</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>3行目のフォントサイズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Location detail</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>場所の詳細</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ログイン</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Make section full page width</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>セクションをページ幅全体にする</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Map</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>地図</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Media gallery</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>メディアギャラリー</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Media position</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>メディアの位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Media with text slide</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>テキスト付きメディアスライド</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Message 1</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>メッセージ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Message 2</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>メッセージ2</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Message delay</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>メッセージ遅延</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Minimal</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ミニマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Minimal popup</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ミニマルポップアップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Mobile font size scale</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>モバイルのフォントサイズスケール</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mobile label size</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>モバイルのラベルサイズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Mobile layout</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>モバイルレイアウト</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Mobile vertical position</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>モバイルの垂直位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Modern</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>モダン</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Multiple stores</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>複数店舗</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>New product label</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>新商品ラベル</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Not applicable when 'Use theme setting' is selected.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>「テーマ設定を使用」が選択されている場合は適用されません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Number of columns wide</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>列数（横方向）</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Number of days</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>日数</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Number of rows tall</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>行数（縦方向）</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>On product image</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>商品画像上</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Only applies when a carousel is not used on mobile.</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>モバイルでカルーセルを使用しない場合にのみ適用されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Open this link in a new window</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>このリンクを新しいウィンドウで開く</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>注文</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Other schema</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>その他のスキーマ</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Outside product image</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>商品画像外</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Overlay</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>オーバーレイ</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Overlay content</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>オーバーレイコンテンツ</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Overlay content position</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>オーバーレイコンテンツの位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Overlay image position on desktop</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>デスクトップでのオーバーレイ画像の位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Overlay image position on mobile</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>モバイルでのオーバーレイ画像の位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Padding</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>パディング</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Page width</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>ページ幅</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Parallax effect used in: Slideshow, Promotion banner, Media with text, Collection banner, Map, Age Verification popup.</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>パララックス効果は、スライドショー、プロモーションバナー、テキスト付きメディア、コレクションバナー、マップ、年齢確認ポップアップで使用されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Popup position</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>ポップアップの位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Popup triggers</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ポップアップトリガー</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Pre-order label</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>予約販売ラベル</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Primary color</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>プライマリカラー</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Primary text color (dark)</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>プライマリテキストの色（ダーク）</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Primary text color (light)</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>プライマリテキストの色（ライト）</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Product activation date</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>商品有効化日</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Product card background color</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>商品カードの背景色</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Product card image reveal effect</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>商品カード画像表示効果</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Product card title</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>商品カードのタイトル</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Product creation date</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>商品作成日</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Product labels and badges</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>商品ラベルとバッジ</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Product reviews app</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>商品レビューアプリ</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Promotion</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>プロモーション</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Promotion grid</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>プロモーショングリッド</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Provide multiple addresses if you have locations in multiple cities, states, or countries.</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>複数の都市、州、または国に拠点がある場合は、複数の住所を入力してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>質問</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>RTL languages</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>RTL言語</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Reappear after</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>再表示まで</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Refer to the [BreadcrumbList schema documentation](https://schema.org/BreadcrumbList) for details.</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>詳細については、[BreadcrumbListスキーマのドキュメント](https://schema.org/BreadcrumbList)を参照してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Refer to the [SearchAction schema documentation](https://schema.org/SearchAction) for details.</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>詳細については、[SearchActionスキーマのドキュメント](https://schema.org/SearchAction)を参照してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Registration</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Reorder</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>並べ替え</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Reorder popup</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>ポップアップの並べ替え</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Replace the background image with a solid color option.</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>背景画像を単色オプションに置き換えます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Reset password</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>パスワードをリセット</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Right spacing</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>右の間隔</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Right to left</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>右から左</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Row height</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>行の高さ</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Row height can not be used with this setting.</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>行の高さは、この設定では使用できません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Rows alternative background</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>行の代替背景</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Sale label</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>セールラベル</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Sale label automatically displays on all discounted products.</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>セールラベルは、すべての割引商品に自動的に表示されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Sale label position</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>セールラベルの位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Sale label style</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>セールラベルのスタイル</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>スケジュール</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Scroll</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>スクロール</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Scroll height</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>スクロールの高さ</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Scroll to top</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>トップへスクロール</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Scrolling</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>スクロール</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Scrolling promotion</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>スクロールプロモーション</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Secondary color</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>セカンダリカラー</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Secondary text color (dark)</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>セカンダリテキストの色（ダーク）</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Secondary text color (light)</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>セカンダリテキストの色（ライト）</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Sections spacing</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>セクションの間隔</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Select collections to show this Featured icon block.</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>この注目アイコンブロックを表示するコレクションを選択してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Select the review app to integrate with theme's native product rating. Some app in 'Other' option might not fully compatible with the theme, please [contact us for support](https://omnithemes.com/contact/).</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>テーマのネイティブ商品評価と統合するレビューアプリを選択してください。「その他」オプションの一部のアプリはテーマと完全に互換性がない場合がありますので、[サポートにお問い合わせください](https://omnithemes.com/contact/)。</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Select the trigger that will display the popup.</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>ポップアップを表示するトリガーを選択してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Selected preset</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>選択されたプリセット</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Set up exact time to start showing labels and badges.</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>ラベルとバッジの表示を開始する正確な時間を設定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Set up exact time to stop showing labels and badges.</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>ラベルとバッジの表示を停止する正確な時間を設定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Set up start and end date in the 'Countdown timer' block to show popup on schedule.</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>ポップアップをスケジュール表示するには、「カウントダウンタイマー」ブロックで開始日と終了日を設定してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Set up to show labels on start time and hide on end time.</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>開始時刻にラベルを表示し、終了時刻に非表示にするように設定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Setup the exact time to end countdown timer and hide the popup on the storefront.</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>カウントダウンタイマーを終了し、ストアフロントのポップアップを非表示にする正確な時間を設定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Setup the exact time to start countdown timer and show the popup on the storefront.</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>カウントダウンタイマーを開始し、ストアフロントにポップアップを表示する正確な時間を設定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Share on Email</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>メールで共有</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Share on LINE</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>LINEで共有</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Share on Telegram</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Telegramで共有</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Share on Whatsapp</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>WhatsAppで共有</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Share via SMS</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>SMSで共有</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Show Reorder button from customer account and customer order pages</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>顧客アカウントページと顧客注文ページから再注文ボタンを表示する</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Show a small sticky message for the popup at the screen bottom. Clicking this message will open the full popup as configured.</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>画面下部にポップアップの小さなスティッキーメッセージを表示します。このメッセージをクリックすると、設定されているフルポップアップが開きます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Show background color</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>背景色を表示する</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Show border</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>枠線を表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Show currency codes</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>通貨コードを表示する</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Show for guests only</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>ゲストのみに表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Show label within the number of days since</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>ラベルを表示する日数（起点から）</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Show on homepage only</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>ホームページのみに表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Show on mobile</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>モバイルに表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Show on product card</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>商品カードに表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Show on product page</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>商品ページに表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Show section borders</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>セクション境界線を表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Show your market currency as a single entity in the currency selection, rather than showing specific countries individually.</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>通貨選択で、特定の国を個別に表示するのではなく、市場通貨を単一のエンティティとして表示します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Sold out label</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>売り切れラベル</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Sold out label automatically displays on all unavailable products.</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>売り切れラベルは、すべての在庫切れ商品に自動的に表示されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Stack market currency values</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>市場通貨値を積み重ねて表示する</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Start day</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>開始日</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Start hour</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>開始時間</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Start minute</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>開始分</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Start month</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>開始月</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Start year</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>開始年</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Store address</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>店舗住所</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Store list style</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>店舗リストスタイル</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Store location</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>店舗所在地</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Store name</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>店舗名</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Supports YouTube and Vimeo.
+When pagination style is Image and a Vimeo video is used, please select desktop and mobile image above to show as image pagination.</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>YouTubeとVimeoに対応しています。
+ページネーションスタイルが「画像」でVimeoビデオを使用する場合、画像ページネーションとして表示するには、上記のデスクトップおよびモバイル画像を選択してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>システム</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Tab attention</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>タブ注意</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Text label</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>テキストラベル</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Text to use for empty fields</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>空のフィールドに使用するテキスト</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>The number of days before a dismissed popup reappears.</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>閉じられたポップアップが再表示されるまでの日数。</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>The product image reveal effect fades automatically when the carousel hover effect is used without navigation arrows</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>カルーセルのホバー効果がナビゲーション矢印なしで使用されている場合、商品画像の表示効果は自動的にフェードします</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>The section height is consistently fullscreen on mobile devices to optimize quality, ensure complete visibility, and enhance accessibility.</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>セクションの高さは、品質を最適化し、完全な視認性を確保し、アクセシビリティを向上させるために、モバイルデバイスで常にフルスクリーンになります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>This applies to the 'Scroll' trigger. Choose how far down the page (calculated in % of screen height) users have to scroll before the popup shows up.</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>これは「スクロール」トリガーに適用されます。ユーザーがポップアップが表示されるまでにページをどれだけ下（画面の高さの%で計算）にスクロールする必要があるかを選択します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>This applies to the Delay trigger.</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>これは遅延トリガーに適用されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This automatically detects your theme style and keeps necessary data when switching between presets. DO NOT EDIT, or it might result in losing theme settings and media. </t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>これはテーマのスタイルを自動的に検出し、プリセットを切り替える際に必要なデータを保持します。編集しないでください。テーマ設定やメディアが失われる可能性があります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>This setting only applies to desktop.</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>この設定はデスクトップにのみ適用されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Time color (dark)</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>時刻の色（ダーク）</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Time color (light)</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>時刻の色（ライト）</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Time per scroll</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>スクロールあたりの時間</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>To change button style, go to Theme settings &gt; Buttons. To change image style for some specific sections, go to the section settings and search for 'Enable rounded corner images'.</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>ボタンのスタイルを変更するには、テーマ設定 &gt; ボタンに進みます。特定のセクションの画像スタイルを変更するには、セクション設定に進み、「角丸画像を有効にする」を検索してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>To make editing easier, only the selecting popup is shown in Theme editor.</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>編集を容易にするため、テーマエディターでは選択中のポップアップのみが表示されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>To show labels and badges in Quick view and Product Information, please add the 'Labels and badges' block in those sections, or check [this guide.](https://support.omnithemes.com/blogs/overlay-group-1/user-guide-product-labels-badges)</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>クイックビューおよび商品情報にラベルとバッジを表示するには、これらのセクションに「ラベルとバッジ」ブロックを追加するか、[このガイド](https://support.omnithemes.com/blogs/overlay-group-1/user-guide-product-labels-badges)を確認してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Top padding</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>上部パディング</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Trigger intent</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>トリガーの目的</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Use another icon</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>別のアイコンを使用する</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Use coupon_code to show the coupon code within the text box.</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>テキストボックス内にクーポンコードを表示するには coupon_code を使用します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Use image instead.</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>代わりに画像を使用します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Use the settings below to set up the label on product cards.</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>以下の設定を使用して、商品カードのラベルを設定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Use theme setting</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>テーマ設定を使用</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Use this section to add labels and badges to your products and product cards. [See tutorials](https://support.omnithemes.com/blogs/overlay-group-1/user-guide-product-labels-badges)</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>このセクションを使用して、商品および商品カードにラベルとバッジを追加します。[チュートリアルを見る](https://support.omnithemes.com/blogs/overlay-group-1/user-guide-product-labels-badges)</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Use when store address is left blank.</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>店舗住所が空白の場合に使用します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Use {inventory} for "In stock/Sold out", {quantity} for total quantity in inventory.</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>「在庫あり/売り切れ」には{inventory}、在庫の合計数量には{quantity}を使用します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Used for any custom HTML code to apply site-wide. Placed at the bottom of the &lt;head&gt; tag on all theme pages, except for checkout page.</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>サイト全体に適用するカスタムHTMLコードに使用します。チェックアウトページを除くすべてのテーマページの&lt;head&gt;タグの最下部に配置されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Vertical position</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>垂直位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Vertical slideshow</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>縦型スライドショー</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>WARNING: Adjust this setting may affect your website's performance. We recommend reviewing the configuration details before making any changes.</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>警告：この設定を調整すると、ウェブサイトのパフォーマンスに影響を与える可能性があります。変更を加える前に設定の詳細を確認することをお勧めします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>You can use these codes in the content:</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>コンテンツで以下のコードを使用できます：</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>use {sale} for discount percentage, {sale_amount} for discount amount.</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>割引率には{sale}、割引額には{sale_amount}を使用します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>{count_down} for count down timer to end date. (Must enable schedule)</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>終了日までのカウントダウンタイマーには{count_down}。(スケジュールを有効にする必要があります)</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>{metafield_key} for a product metafield (key must be of Single line text type). Note: Metafield keys must be configured first in Theme settings &gt; Product labels and badges to display here.</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>商品メタフィールドには{metafield_key}（キーは単一行テキストタイプである必要があります）。注意：メタフィールドキーは、ここに表示するために、まずテーマ設定 &gt; 商品ラベルとバッジで設定する必要があります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>{price} for product price.</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>商品価格には{price}。</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>{qty} for total quantity in inventory.</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>在庫の合計数量には{qty}。</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>{sale_amount} for discount amount.</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>割引額には{sale_amount}。</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>{sale} for discount percentage.</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>割引率には{sale}。</t>
         </is>
       </c>
     </row>
@@ -2837,7 +5251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2868,7 +5282,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2878,7 +5292,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4">
@@ -2888,7 +5302,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5">
@@ -2899,18 +5313,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>output\japanese\final.xlsx</t>
+          <t>output/japanese/final.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Items in p1.json</t>
+          <t>Items in p10.json</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Items in p3.json</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
